--- a/data/trans_orig/P36BPD03_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD03_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>38071</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27380</v>
+        <v>27236</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49685</v>
+        <v>52121</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06589467918575721</v>
+        <v>0.06589467918575723</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04739024835677215</v>
+        <v>0.04714088953296543</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08599632052116377</v>
+        <v>0.09021197013612915</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -762,19 +762,19 @@
         <v>43570</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35154</v>
+        <v>34940</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55614</v>
+        <v>54321</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05313547855267681</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0428719291792235</v>
+        <v>0.04261043579952366</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06782423192931887</v>
+        <v>0.06624630847442985</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -783,19 +783,19 @@
         <v>81641</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67788</v>
+        <v>66716</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>98748</v>
+        <v>100782</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05840954382064418</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.048498212931113</v>
+        <v>0.04773151251820559</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07064836435737737</v>
+        <v>0.07210394482897947</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>136148</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>115344</v>
+        <v>117808</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>154116</v>
+        <v>154485</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2356484355707993</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1996404391631362</v>
+        <v>0.2039038105303302</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2667461629099028</v>
+        <v>0.2673851098946169</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>297</v>
@@ -833,19 +833,19 @@
         <v>167931</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>150563</v>
+        <v>150881</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>185891</v>
+        <v>186681</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2047989613082159</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1836183432269164</v>
+        <v>0.184006604443735</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2267027406632834</v>
+        <v>0.227666277370235</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>469</v>
@@ -854,19 +854,19 @@
         <v>304079</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>278674</v>
+        <v>278861</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>330044</v>
+        <v>330152</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2175507116272375</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1993751442612824</v>
+        <v>0.1995083661270919</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2361273638371167</v>
+        <v>0.2362040904767804</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>288864</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>265977</v>
+        <v>265643</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>311659</v>
+        <v>311588</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.49997126996658</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4603578168520667</v>
+        <v>0.4597806689553199</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5394263023417389</v>
+        <v>0.5393020714035528</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>819</v>
@@ -904,19 +904,19 @@
         <v>461868</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>439417</v>
+        <v>437843</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>484163</v>
+        <v>483555</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5632683497711997</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5358888033589387</v>
+        <v>0.53396870055028</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5904588315523728</v>
+        <v>0.5897172027723137</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1176</v>
@@ -925,19 +925,19 @@
         <v>750732</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>719980</v>
+        <v>717918</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>783403</v>
+        <v>781594</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5371042553454263</v>
+        <v>0.5371042553454262</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5151033245370842</v>
+        <v>0.5136282316855727</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.560478964861082</v>
+        <v>0.5591848455871198</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>114677</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96476</v>
+        <v>95061</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>135966</v>
+        <v>136302</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1984856152768635</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1669826993204769</v>
+        <v>0.164533389920165</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2353334069643726</v>
+        <v>0.235914072002754</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>236</v>
@@ -975,19 +975,19 @@
         <v>146610</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>129406</v>
+        <v>129339</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>163544</v>
+        <v>165495</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1787972103679077</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1578159835637379</v>
+        <v>0.1577350612293303</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1994487676703854</v>
+        <v>0.2018283899645238</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>356</v>
@@ -996,19 +996,19 @@
         <v>261287</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>235219</v>
+        <v>236454</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>291888</v>
+        <v>287937</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1869354892066921</v>
+        <v>0.186935489206692</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1682856472745613</v>
+        <v>0.1691689742428438</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2088285064778248</v>
+        <v>0.206001694031928</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>136891</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>110584</v>
+        <v>112370</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>165339</v>
+        <v>168506</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06144761027572641</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04963911573005011</v>
+        <v>0.05044069173927099</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07421760189120447</v>
+        <v>0.07563935088092504</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>101</v>
@@ -1121,19 +1121,19 @@
         <v>89324</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>71474</v>
+        <v>73001</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>110673</v>
+        <v>109731</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.04117582821601028</v>
+        <v>0.04117582821601027</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03294766008367759</v>
+        <v>0.03365164497795559</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05101721748915995</v>
+        <v>0.05058314917744542</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>209</v>
@@ -1142,19 +1142,19 @@
         <v>226214</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>194830</v>
+        <v>194357</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>263143</v>
+        <v>261769</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.05144641373626468</v>
+        <v>0.0514464137362647</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04430889806837408</v>
+        <v>0.04420122672542338</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05984476622647973</v>
+        <v>0.05953232707991125</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>519446</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>475873</v>
+        <v>470828</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>567048</v>
+        <v>563960</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2331698159563816</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2136104119616597</v>
+        <v>0.211345835423705</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2545373621369582</v>
+        <v>0.253151074334941</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>565</v>
@@ -1192,19 +1192,19 @@
         <v>435738</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>400027</v>
+        <v>403474</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>472574</v>
+        <v>470609</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2008632482533122</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1844013941829758</v>
+        <v>0.1859905545283397</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2178434939546175</v>
+        <v>0.2169376894009987</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1019</v>
@@ -1213,19 +1213,19 @@
         <v>955184</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>898302</v>
+        <v>899827</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1010153</v>
+        <v>1014176</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.217231190917792</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2042948989989027</v>
+        <v>0.2046416802586779</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2297323682047876</v>
+        <v>0.2306473145267821</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>1077801</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1023886</v>
+        <v>1024673</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1133467</v>
+        <v>1137095</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4838047139665764</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4596032348915585</v>
+        <v>0.4599567199439444</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5087920444949162</v>
+        <v>0.5104207014422256</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1547</v>
@@ -1263,19 +1263,19 @@
         <v>1138915</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1092471</v>
+        <v>1095043</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1182550</v>
+        <v>1180818</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5250086463973651</v>
+        <v>0.525008646397365</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5035992710410399</v>
+        <v>0.5047848608119714</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.545122760188969</v>
+        <v>0.5443244728136942</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2560</v>
@@ -1284,19 +1284,19 @@
         <v>2216716</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2144088</v>
+        <v>2149228</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2283185</v>
+        <v>2287833</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5041329034284153</v>
+        <v>0.5041329034284154</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4876156401820507</v>
+        <v>0.4887845851165042</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5192494497988903</v>
+        <v>0.5203065168751132</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>493622</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>443746</v>
+        <v>443081</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>537875</v>
+        <v>541183</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2215778598013155</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1991890983248164</v>
+        <v>0.1988906848523637</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2414421219884952</v>
+        <v>0.2429269359194138</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>705</v>
@@ -1334,19 +1334,19 @@
         <v>505350</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>468448</v>
+        <v>469070</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>543993</v>
+        <v>542076</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2329522771333125</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2159415438360965</v>
+        <v>0.216228287845147</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2507657087386863</v>
+        <v>0.2498821528093344</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1119</v>
@@ -1355,19 +1355,19 @@
         <v>998972</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>941663</v>
+        <v>938080</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1055967</v>
+        <v>1055733</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2271894919175279</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2141561490226121</v>
+        <v>0.2133412153323649</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2401514593540141</v>
+        <v>0.2400982175051143</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>23189</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15182</v>
+        <v>14413</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>35617</v>
+        <v>36599</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03258742664213042</v>
+        <v>0.03258742664213041</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02133471615990207</v>
+        <v>0.02025472080218141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05005358605980558</v>
+        <v>0.05143237125444487</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -1480,19 +1480,19 @@
         <v>24634</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16037</v>
+        <v>16055</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35791</v>
+        <v>37558</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03352063219256424</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02182280977983332</v>
+        <v>0.02184657819396955</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04870362299856106</v>
+        <v>0.05110789376096614</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -1501,19 +1501,19 @@
         <v>47822</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35145</v>
+        <v>34951</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>63536</v>
+        <v>64687</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.03306154242344277</v>
+        <v>0.03306154242344275</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02429738271706054</v>
+        <v>0.02416326927295754</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04392521006959817</v>
+        <v>0.04472083688748386</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>159179</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>136145</v>
+        <v>137004</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>185010</v>
+        <v>186749</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2236963868430322</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.19132548260326</v>
+        <v>0.1925333993355325</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2599957599529704</v>
+        <v>0.2624400450704761</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>143</v>
@@ -1551,19 +1551,19 @@
         <v>110805</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>93965</v>
+        <v>93916</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>132345</v>
+        <v>130488</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1507802862293503</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1278652907038105</v>
+        <v>0.1277985075672982</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1800916927210299</v>
+        <v>0.1775640913420323</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>290</v>
@@ -1572,19 +1572,19 @@
         <v>269984</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>243941</v>
+        <v>239877</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>302938</v>
+        <v>303004</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.1866513071211704</v>
+        <v>0.1866513071211703</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1686464958790191</v>
+        <v>0.1658366402927808</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2094336324018828</v>
+        <v>0.209478985312975</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>344214</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>313510</v>
+        <v>314842</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>372388</v>
+        <v>375027</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.483727247682377</v>
+        <v>0.4837272476823769</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.440579081685372</v>
+        <v>0.44245004999124</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5233202863649922</v>
+        <v>0.5270285557582244</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>543</v>
@@ -1622,19 +1622,19 @@
         <v>377730</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>352887</v>
+        <v>353437</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>402174</v>
+        <v>400698</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5140049078702372</v>
+        <v>0.5140049078702373</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.480198185779325</v>
+        <v>0.4809476210751645</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5472667956299909</v>
+        <v>0.5452590086228403</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>890</v>
@@ -1643,19 +1643,19 @@
         <v>721944</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>683179</v>
+        <v>682747</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>762153</v>
+        <v>758199</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4991098356980651</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.472310027991552</v>
+        <v>0.4720111775119464</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.526907401455435</v>
+        <v>0.5241739593376505</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>185005</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>160251</v>
+        <v>159752</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>213705</v>
+        <v>212433</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2599889388324604</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2252027189024508</v>
+        <v>0.2245004726266145</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3003210798400248</v>
+        <v>0.2985342613924734</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>293</v>
@@ -1693,19 +1693,19 @@
         <v>221708</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>198988</v>
+        <v>200613</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>242954</v>
+        <v>245175</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.301694173707848</v>
+        <v>0.3016941737078481</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2707772717164594</v>
+        <v>0.2729891790671602</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3306048017453505</v>
+        <v>0.3336270745450253</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>458</v>
@@ -1714,19 +1714,19 @@
         <v>406713</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>372707</v>
+        <v>372957</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>444029</v>
+        <v>445113</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2811773147573219</v>
+        <v>0.2811773147573218</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2576673350374453</v>
+        <v>0.2578406934036191</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3069756367114157</v>
+        <v>0.3077252216180997</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>198151</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>165888</v>
+        <v>169051</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>229889</v>
+        <v>230997</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.05633909684047245</v>
+        <v>0.05633909684047246</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04716602667810289</v>
+        <v>0.04806535402118468</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0653632274776365</v>
+        <v>0.06567809651393955</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>197</v>
@@ -1839,19 +1839,19 @@
         <v>157527</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>136455</v>
+        <v>136033</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>184403</v>
+        <v>183847</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04229849647511447</v>
+        <v>0.04229849647511446</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03664033356841551</v>
+        <v>0.03652682337426651</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04951494068701303</v>
+        <v>0.04936569716967591</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>368</v>
@@ -1860,19 +1860,19 @@
         <v>355678</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>316614</v>
+        <v>316561</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>396983</v>
+        <v>396529</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04911804095797706</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04372337261726329</v>
+        <v>0.04371606238125603</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05482220669315072</v>
+        <v>0.05475947575379139</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>814774</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>758732</v>
+        <v>759705</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>875380</v>
+        <v>872677</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2316603027543565</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2157261203224151</v>
+        <v>0.2160027651563016</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.248892044996896</v>
+        <v>0.2481234024780388</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1005</v>
@@ -1910,19 +1910,19 @@
         <v>714474</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>672877</v>
+        <v>673103</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>757074</v>
+        <v>760564</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1918471402274478</v>
+        <v>0.1918471402274477</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1806776888246811</v>
+        <v>0.1807385332464042</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2032858320540173</v>
+        <v>0.2042229939370564</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1778</v>
@@ -1931,19 +1931,19 @@
         <v>1529248</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1460793</v>
+        <v>1462813</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1606626</v>
+        <v>1604020</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.211184463831186</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2017310269721999</v>
+        <v>0.2020099642643769</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2218700795781423</v>
+        <v>0.2215102897289645</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>1710878</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1646001</v>
+        <v>1641566</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1776727</v>
+        <v>1784163</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4864447467305325</v>
+        <v>0.4864447467305326</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4679985529664056</v>
+        <v>0.4667375717191825</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5051673059060724</v>
+        <v>0.5072813754758935</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2909</v>
@@ -1981,19 +1981,19 @@
         <v>1978514</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1928392</v>
+        <v>1925811</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2038942</v>
+        <v>2031574</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.5312612187262999</v>
+        <v>0.5312612187263001</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5178026476869033</v>
+        <v>0.5171097533319451</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5474871424302491</v>
+        <v>0.5455086917768415</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4626</v>
@@ -2002,19 +2002,19 @@
         <v>3689392</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3611619</v>
+        <v>3609032</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3772870</v>
+        <v>3780522</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5094937788457254</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4987534938976772</v>
+        <v>0.4983962709485983</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5210217970338595</v>
+        <v>0.5220785044853337</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>793304</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>738757</v>
+        <v>735172</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>849701</v>
+        <v>857801</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2255558536746384</v>
+        <v>0.2255558536746385</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2100468630545516</v>
+        <v>0.2090274372071241</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2415909887332477</v>
+        <v>0.243894004323495</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1234</v>
@@ -2052,19 +2052,19 @@
         <v>873668</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>826602</v>
+        <v>830706</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>918901</v>
+        <v>922229</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2345931445711378</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2219552227636832</v>
+        <v>0.2230573693110457</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2467389498865872</v>
+        <v>0.2476325600002878</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1933</v>
@@ -2073,19 +2073,19 @@
         <v>1666972</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1593612</v>
+        <v>1584130</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1738011</v>
+        <v>1735604</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2302037163651114</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2200729011537763</v>
+        <v>0.2187635291618849</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2400139665922741</v>
+        <v>0.2396816148379733</v>
       </c>
     </row>
     <row r="23">
